--- a/Commands.xlsx
+++ b/Commands.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>sudo apt-get update; sudo apt-get upgrade</t>
   </si>
@@ -93,20 +93,29 @@
     <t>http://www.makeuseof.com/tag/host-website-raspberry-pi/</t>
   </si>
   <si>
-    <t>http://www.tutorialspoint.com/python/python_cgi_programming.htm</t>
-  </si>
-  <si>
-    <t>cgi programming with python</t>
-  </si>
-  <si>
     <t>sudo apt-get install zip</t>
+  </si>
+  <si>
+    <t>sudo rpi-upgrade</t>
+  </si>
+  <si>
+    <t>install up-arrow functionality</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>sudo apt-get install sqlite3</t>
+  </si>
+  <si>
+    <t>2015-06-05 / RPi2 / 64GB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +133,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,10 +167,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -456,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,238 +490,285 @@
     <col min="1" max="1" width="55" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B3" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B13" r:id="rId8"/>
-    <hyperlink ref="B17" r:id="rId9"/>
-    <hyperlink ref="B18" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
+    <hyperlink ref="B16" r:id="rId8"/>
+    <hyperlink ref="B20" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>

--- a/Commands.xlsx
+++ b/Commands.xlsx
@@ -105,10 +105,10 @@
     <t>X</t>
   </si>
   <si>
-    <t>sudo apt-get install sqlite3</t>
-  </si>
-  <si>
     <t>2015-06-05 / RPi2 / 64GB</t>
+  </si>
+  <si>
+    <t>sudo apt-get install sqlite3 php5-sqlite</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>

--- a/Commands.xlsx
+++ b/Commands.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7320"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7260" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Parts" sheetId="5" r:id="rId1"/>
+    <sheet name="Physical Setup" sheetId="3" r:id="rId2"/>
+    <sheet name="Install List" sheetId="1" r:id="rId3"/>
+    <sheet name="Testing Functionality" sheetId="2" r:id="rId4"/>
+    <sheet name="Folder Structure" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="169">
   <si>
     <t>sudo apt-get update; sudo apt-get upgrade</t>
   </si>
@@ -24,27 +26,15 @@
     <t>http://skpang.co.uk/blog/archives/1165</t>
   </si>
   <si>
-    <t>enabled auto-login to 'pi' user</t>
-  </si>
-  <si>
     <t>http://www.howtogeek.com/167195/how-to-change-your-raspberry-pi-or-other-linux-devices-hostname/</t>
   </si>
   <si>
-    <t>changed hostname</t>
-  </si>
-  <si>
-    <t>installed can functionality</t>
-  </si>
-  <si>
     <t>http://raspberrypihq.com/how-to-share-a-folder-with-a-windows-computer-from-a-raspberry-pi/</t>
   </si>
   <si>
     <t>Setup samba share</t>
   </si>
   <si>
-    <t>Chmod 0777 on the folder that is being samba shared.</t>
-  </si>
-  <si>
     <t>http://ubuntuforums.org/showthread.php?t=1723762</t>
   </si>
   <si>
@@ -84,9 +74,6 @@
     <t>http://raspberrywebserver.com/serveradmin/run-a-script-on-start-up.html</t>
   </si>
   <si>
-    <t>To run a script on startup</t>
-  </si>
-  <si>
     <t>setup a web server on the raspberry pi</t>
   </si>
   <si>
@@ -109,13 +96,445 @@
   </si>
   <si>
     <t>sudo apt-get install sqlite3 php5-sqlite</t>
+  </si>
+  <si>
+    <t>very.useful.bash.pdf</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>CAN Bus:</t>
+  </si>
+  <si>
+    <t>go into directory where you copied can-test_pi2</t>
+  </si>
+  <si>
+    <t>cd /data/scripts</t>
+  </si>
+  <si>
+    <t>run candump command</t>
+  </si>
+  <si>
+    <t>should see lots of can messages on the bus</t>
+  </si>
+  <si>
+    <t>RTC:</t>
+  </si>
+  <si>
+    <t>change Rpi date to correct date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power down </t>
+  </si>
+  <si>
+    <t>sudo halt</t>
+  </si>
+  <si>
+    <t>wait 5 minutes</t>
+  </si>
+  <si>
+    <t>with correct date on RTC, change Rpi date to something silly</t>
+  </si>
+  <si>
+    <t>unplug power from Rpi</t>
+  </si>
+  <si>
+    <t>date should be correct, not something silly</t>
+  </si>
+  <si>
+    <t>plug power back in to power up</t>
+  </si>
+  <si>
+    <t>sudo date -s "June 25, 2015 13:49:00"</t>
+  </si>
+  <si>
+    <t>sudo hwclock -w</t>
+  </si>
+  <si>
+    <t>check RTC date</t>
+  </si>
+  <si>
+    <t>sudo hwclock -r</t>
+  </si>
+  <si>
+    <t>power up (unplug &amp; replug)</t>
+  </si>
+  <si>
+    <t>sudo date -s "Sep 1, 1939 00:00:00"</t>
+  </si>
+  <si>
+    <t>./candump -cae can0,477:7ff,478:7ff,479:7ff,480:7ff,475:7ff,270:7ff,294:7ff,306:7ff</t>
+  </si>
+  <si>
+    <t>Ctrl + C to stop</t>
+  </si>
+  <si>
+    <t>copy Rpi date to RTC date</t>
+  </si>
+  <si>
+    <t>should be same as Rpi date</t>
+  </si>
+  <si>
+    <t>date should still be correct</t>
+  </si>
+  <si>
+    <t>Hotspot:</t>
+  </si>
+  <si>
+    <t>Samba Share:</t>
+  </si>
+  <si>
+    <t>Should be able to connect to samba share via Windows computer, on both an Ethernet connetion and a WiFi connection.</t>
+  </si>
+  <si>
+    <t>Server:</t>
+  </si>
+  <si>
+    <t>Ensure you can access the pi's webpage from a WiFi connected device.</t>
+  </si>
+  <si>
+    <t>install can functionality</t>
+  </si>
+  <si>
+    <t>enable auto-login to 'pi' user</t>
+  </si>
+  <si>
+    <t>change hostname</t>
+  </si>
+  <si>
+    <t>Chmod 0777 on the folder that is being samba shared</t>
+  </si>
+  <si>
+    <t>RAM drive:</t>
+  </si>
+  <si>
+    <t>You can access RAM drive. Create some fake file in there. Reboot. File is no longer present.</t>
+  </si>
+  <si>
+    <t>Ensure that you can connect to WiFi.</t>
+  </si>
+  <si>
+    <t>Ethernet:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can connect to the Pi via Ethernet. </t>
+  </si>
+  <si>
+    <t>Raspberry Pi, in a Pibow Enclosure</t>
+  </si>
+  <si>
+    <t>install Raspbian</t>
+  </si>
+  <si>
+    <t>http://downloads.raspberrypi.org/raspbian_latest</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>ELE Num</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
+    <t>Man PN</t>
+  </si>
+  <si>
+    <t>Specs</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Unit SubTotal</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Total --&gt;</t>
+  </si>
+  <si>
+    <t>ELE04509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspberry Pi Model 2   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Adafruit</t>
+  </si>
+  <si>
+    <t>Datalogger RPi 2 Module only</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/998</t>
+  </si>
+  <si>
+    <t>ELE04475</t>
+  </si>
+  <si>
+    <t>RPi Real-time Clock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adafruit               </t>
+  </si>
+  <si>
+    <t>Datalogger RTC</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/264</t>
+  </si>
+  <si>
+    <t>ELE04476</t>
+  </si>
+  <si>
+    <t>RPi USB Wifi adapter</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>Datalogger Wifi dongle</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/814</t>
+  </si>
+  <si>
+    <t>ELE04477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	RPi CANbus adapter</t>
+  </si>
+  <si>
+    <t>SK Pang Electronics</t>
+  </si>
+  <si>
+    <t>PiCAN</t>
+  </si>
+  <si>
+    <t>Datalogger CANbus adapter</t>
+  </si>
+  <si>
+    <t>https://skpang.co.uk/catalog/pican-canbus-board-for-raspberry-pi-p-1196.html</t>
+  </si>
+  <si>
+    <t>ELE04492</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Enclosure</t>
+  </si>
+  <si>
+    <t>Pibow Coupé</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/2083</t>
+  </si>
+  <si>
+    <t>ELE04493</t>
+  </si>
+  <si>
+    <t>Datalogger Enclosure</t>
+  </si>
+  <si>
+    <t>McMaster</t>
+  </si>
+  <si>
+    <t>1037N5</t>
+  </si>
+  <si>
+    <t>6-3/4" x 4-3/4" x 2-1/8"</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#1037n5/=xcm9zo</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#1037n7/=xcmhro</t>
+  </si>
+  <si>
+    <t>Backup, 3 1/8 "</t>
+  </si>
+  <si>
+    <t>ELE04494</t>
+  </si>
+  <si>
+    <t>Ethernet Connector</t>
+  </si>
+  <si>
+    <t>DigiKey</t>
+  </si>
+  <si>
+    <t>626-1461-ND</t>
+  </si>
+  <si>
+    <t>Weatherproof ethernet connector</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-search/en/connectors-interconnects/modular-connectors-adapters/1442780?k=17-10020</t>
+  </si>
+  <si>
+    <t>ELE04495</t>
+  </si>
+  <si>
+    <t>Perma-Proto HAT</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/2310</t>
+  </si>
+  <si>
+    <t>ELE04496</t>
+  </si>
+  <si>
+    <t>GPIO Stacking Header</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/2223</t>
+  </si>
+  <si>
+    <t>ELE04497</t>
+  </si>
+  <si>
+    <t>LED - Green</t>
+  </si>
+  <si>
+    <t>Allied Elec</t>
+  </si>
+  <si>
+    <t>70081865 </t>
+  </si>
+  <si>
+    <t>2V, 5mm mounting hole</t>
+  </si>
+  <si>
+    <t>http://www.alliedelec.com/dialight-605-1211-110f/70081865/</t>
+  </si>
+  <si>
+    <t>ELE04498</t>
+  </si>
+  <si>
+    <t>LED - Yellow</t>
+  </si>
+  <si>
+    <t>70081866 </t>
+  </si>
+  <si>
+    <t>http://www.alliedelec.com/dialight-605-1311-110f/70081866/</t>
+  </si>
+  <si>
+    <t>ELE04499</t>
+  </si>
+  <si>
+    <t>Resistor - 133Ω</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>PPC133YCT-ND</t>
+  </si>
+  <si>
+    <t>133Ω</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/SFR2500001330FR500/PPC133YCT-ND/596873</t>
+  </si>
+  <si>
+    <t>ELE04500</t>
+  </si>
+  <si>
+    <t>Resistor - 200Ω</t>
+  </si>
+  <si>
+    <t>CF14JT200RCT-ND</t>
+  </si>
+  <si>
+    <t>200Ω</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/CF14JT200R/CF14JT200RCT-ND/1830333</t>
+  </si>
+  <si>
+    <t>Ethernet Cable</t>
+  </si>
+  <si>
+    <t>PMP</t>
+  </si>
+  <si>
+    <t>Manny</t>
+  </si>
+  <si>
+    <t>6"</t>
+  </si>
+  <si>
+    <t>Wi-Fi Dongle</t>
+  </si>
+  <si>
+    <t>Perma-Proto HAT + GPIO Stacking Header</t>
+  </si>
+  <si>
+    <t>Status LED</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Scripts</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>database goes here</t>
+  </si>
+  <si>
+    <t>temporary databases go here</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>create necessary folder structure</t>
+  </si>
+  <si>
+    <t>turn_on_led.py</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>turn on led on startup</t>
+  </si>
+  <si>
+    <t>python /data/scripts/turn_on_led.py</t>
+  </si>
+  <si>
+    <t>see Folder Structure tab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +564,120 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF59EF1D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,11 +689,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -177,8 +704,99 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -190,6 +808,1003 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3073" name="AutoShape 1" descr="Raspberry Pi 2 - Model B - ARMv7 with 1G RAM"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7924800" y="4191000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3074" name="AutoShape 2" descr="Raspberry Pi 2 - Model B - ARMv7 with 1G RAM"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10363200" y="4381500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3075" name="AutoShape 3" descr="Raspberry Pi 2 - Model B - ARMv7 with 1G RAM"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4876800" y="4572000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="12605" t="10744" r="13005" b="7120"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11972925" y="5086350"/>
+          <a:ext cx="2724150" cy="2257426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10772776" y="3838577"/>
+          <a:ext cx="1209674" cy="1266823"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>110707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25361" t="24451" r="22990" b="20604"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="5286375"/>
+          <a:ext cx="1057275" cy="844132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3581400" y="4114801"/>
+          <a:ext cx="790575" cy="1171574"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11449050" y="2781300"/>
+          <a:ext cx="2619375" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10141" t="10741" r="11381" b="9019"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13801725" y="1266825"/>
+          <a:ext cx="3152775" cy="2419351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="5334000"/>
+          <a:ext cx="1905000" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1114425" y="5114926"/>
+          <a:ext cx="9525" cy="857249"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="46251" t="19935" r="4583" b="8405"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10706099" y="676275"/>
+          <a:ext cx="1123951" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10439400" y="1619250"/>
+          <a:ext cx="257175" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="1304925"/>
+          <a:ext cx="1447800" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="20134" t="20000" r="19542" b="16603"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="685800"/>
+          <a:ext cx="2028825" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6991350" y="1543050"/>
+          <a:ext cx="114300" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="1514475"/>
+          <a:ext cx="200025" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>78771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3072" name="Picture 3071"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772276" y="1047750"/>
+          <a:ext cx="847724" cy="364521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>553348</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>77234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12906375" y="7724775"/>
+          <a:ext cx="6430273" cy="7401959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>562873</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>105809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12915900" y="133350"/>
+          <a:ext cx="6430273" cy="7401959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2124075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10620375" y="1343025"/>
+          <a:ext cx="2276475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648950" y="1447800"/>
+          <a:ext cx="2095500" cy="6391275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,7 +2094,5506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.85546875" customWidth="1"/>
+    <col min="11" max="11" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="24">
+        <f>SUM(I3:I998)</f>
+        <v>182.32999999999998</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="20">
+        <v>2358</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="28">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I3" s="28">
+        <f t="shared" ref="I3:I21" si="0">H3*B3</f>
+        <v>39.950000000000003</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="20">
+        <v>264</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="28">
+        <v>9</v>
+      </c>
+      <c r="I4" s="28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <f t="shared" ref="A5:A21" si="1">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="29">
+        <v>814</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="30">
+        <v>11.95</v>
+      </c>
+      <c r="I5" s="28">
+        <f t="shared" si="0"/>
+        <v>11.95</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="30">
+        <v>50</v>
+      </c>
+      <c r="I6" s="28">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="20">
+        <v>2083</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="31">
+        <v>11.95</v>
+      </c>
+      <c r="I7" s="28">
+        <f t="shared" si="0"/>
+        <v>11.95</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="26">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="30">
+        <v>23</v>
+      </c>
+      <c r="I8" s="28">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="30">
+        <v>20.6</v>
+      </c>
+      <c r="I9" s="28">
+        <f t="shared" si="0"/>
+        <v>20.6</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="26">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="33">
+        <v>2310</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="30">
+        <v>4.95</v>
+      </c>
+      <c r="I10" s="28">
+        <f t="shared" si="0"/>
+        <v>4.95</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="26">
+        <v>1</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="33">
+        <v>2223</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="I11" s="28">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="30">
+        <v>4.22</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" si="0"/>
+        <v>4.22</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="30">
+        <v>3.45</v>
+      </c>
+      <c r="I13" s="28">
+        <f t="shared" si="0"/>
+        <v>3.45</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="20">
+        <v>2</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="30">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I14" s="28">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="20">
+        <v>2</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="28">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="20">
+        <v>1</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="40"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="40"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1"/>
+    <hyperlink ref="J4" r:id="rId2"/>
+    <hyperlink ref="J5" r:id="rId3"/>
+    <hyperlink ref="J6" r:id="rId4"/>
+    <hyperlink ref="J11" r:id="rId5"/>
+    <hyperlink ref="J9" r:id="rId6"/>
+    <hyperlink ref="J13" r:id="rId7"/>
+    <hyperlink ref="J12" r:id="rId8"/>
+    <hyperlink ref="J8" r:id="rId9" location="1037n5/=xcm9zo"/>
+    <hyperlink ref="K8" r:id="rId10" location="1037n7/=xcmhro"/>
+    <hyperlink ref="J14" r:id="rId11"/>
+    <hyperlink ref="J15" r:id="rId12"/>
+    <hyperlink ref="J7" r:id="rId13"/>
+    <hyperlink ref="J10" r:id="rId14"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS171"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
+    <col min="16" max="16" width="2.5703125" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:45" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:45" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+    </row>
+    <row r="20" spans="1:45" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="12"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="12"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="12"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="12"/>
+      <c r="AP36" s="12"/>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="12"/>
+      <c r="AS36" s="12"/>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="12"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+      <c r="AS37" s="12"/>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="12"/>
+      <c r="AP38" s="12"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="12"/>
+      <c r="AS38" s="12"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="12"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="12"/>
+      <c r="AO41" s="12"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+      <c r="AS41" s="12"/>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="12"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AS42" s="12"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="12"/>
+      <c r="AP43" s="12"/>
+      <c r="AQ43" s="12"/>
+      <c r="AR43" s="12"/>
+      <c r="AS43" s="12"/>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="12"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+      <c r="AS44" s="12"/>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12"/>
+      <c r="AS45" s="12"/>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="12"/>
+      <c r="AO46" s="12"/>
+      <c r="AP46" s="12"/>
+      <c r="AQ46" s="12"/>
+      <c r="AR46" s="12"/>
+      <c r="AS46" s="12"/>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="12"/>
+      <c r="AO47" s="12"/>
+      <c r="AP47" s="12"/>
+      <c r="AQ47" s="12"/>
+      <c r="AR47" s="12"/>
+      <c r="AS47" s="12"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="12"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="12"/>
+      <c r="AL48" s="12"/>
+      <c r="AM48" s="12"/>
+      <c r="AN48" s="12"/>
+      <c r="AO48" s="12"/>
+      <c r="AP48" s="12"/>
+      <c r="AQ48" s="12"/>
+      <c r="AR48" s="12"/>
+      <c r="AS48" s="12"/>
+    </row>
+    <row r="49" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="12"/>
+      <c r="AN49" s="12"/>
+      <c r="AO49" s="12"/>
+      <c r="AP49" s="12"/>
+      <c r="AQ49" s="12"/>
+      <c r="AR49" s="12"/>
+      <c r="AS49" s="12"/>
+    </row>
+    <row r="50" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="12"/>
+      <c r="AN50" s="12"/>
+      <c r="AO50" s="12"/>
+      <c r="AP50" s="12"/>
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="12"/>
+      <c r="AS50" s="12"/>
+    </row>
+    <row r="51" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="12"/>
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="12"/>
+      <c r="AL51" s="12"/>
+      <c r="AM51" s="12"/>
+      <c r="AN51" s="12"/>
+      <c r="AO51" s="12"/>
+      <c r="AP51" s="12"/>
+      <c r="AQ51" s="12"/>
+      <c r="AR51" s="12"/>
+      <c r="AS51" s="12"/>
+    </row>
+    <row r="52" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="12"/>
+      <c r="AN52" s="12"/>
+      <c r="AO52" s="12"/>
+      <c r="AP52" s="12"/>
+      <c r="AQ52" s="12"/>
+      <c r="AR52" s="12"/>
+      <c r="AS52" s="12"/>
+    </row>
+    <row r="53" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12"/>
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="12"/>
+      <c r="AQ53" s="12"/>
+      <c r="AR53" s="12"/>
+      <c r="AS53" s="12"/>
+    </row>
+    <row r="54" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+    </row>
+    <row r="55" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
+      <c r="AO55" s="12"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="12"/>
+      <c r="AR55" s="12"/>
+      <c r="AS55" s="12"/>
+    </row>
+    <row r="56" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12"/>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="12"/>
+      <c r="AK56" s="12"/>
+      <c r="AL56" s="12"/>
+      <c r="AM56" s="12"/>
+      <c r="AN56" s="12"/>
+      <c r="AO56" s="12"/>
+      <c r="AP56" s="12"/>
+      <c r="AQ56" s="12"/>
+      <c r="AR56" s="12"/>
+      <c r="AS56" s="12"/>
+    </row>
+    <row r="57" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="12"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="12"/>
+      <c r="AM57" s="12"/>
+      <c r="AN57" s="12"/>
+      <c r="AO57" s="12"/>
+      <c r="AP57" s="12"/>
+      <c r="AQ57" s="12"/>
+      <c r="AR57" s="12"/>
+      <c r="AS57" s="12"/>
+    </row>
+    <row r="58" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="12"/>
+      <c r="AG58" s="12"/>
+      <c r="AH58" s="12"/>
+      <c r="AI58" s="12"/>
+      <c r="AJ58" s="12"/>
+      <c r="AK58" s="12"/>
+      <c r="AL58" s="12"/>
+      <c r="AM58" s="12"/>
+      <c r="AN58" s="12"/>
+      <c r="AO58" s="12"/>
+      <c r="AP58" s="12"/>
+      <c r="AQ58" s="12"/>
+      <c r="AR58" s="12"/>
+      <c r="AS58" s="12"/>
+    </row>
+    <row r="59" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="12"/>
+      <c r="AC59" s="12"/>
+      <c r="AD59" s="12"/>
+      <c r="AE59" s="12"/>
+      <c r="AF59" s="12"/>
+      <c r="AG59" s="12"/>
+      <c r="AH59" s="12"/>
+      <c r="AI59" s="12"/>
+      <c r="AJ59" s="12"/>
+      <c r="AK59" s="12"/>
+      <c r="AL59" s="12"/>
+      <c r="AM59" s="12"/>
+      <c r="AN59" s="12"/>
+      <c r="AO59" s="12"/>
+      <c r="AP59" s="12"/>
+      <c r="AQ59" s="12"/>
+      <c r="AR59" s="12"/>
+      <c r="AS59" s="12"/>
+    </row>
+    <row r="60" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="12"/>
+      <c r="AD60" s="12"/>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="12"/>
+      <c r="AG60" s="12"/>
+      <c r="AH60" s="12"/>
+      <c r="AI60" s="12"/>
+      <c r="AJ60" s="12"/>
+      <c r="AK60" s="12"/>
+      <c r="AL60" s="12"/>
+      <c r="AM60" s="12"/>
+      <c r="AN60" s="12"/>
+      <c r="AO60" s="12"/>
+      <c r="AP60" s="12"/>
+      <c r="AQ60" s="12"/>
+      <c r="AR60" s="12"/>
+      <c r="AS60" s="12"/>
+    </row>
+    <row r="61" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="12"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="12"/>
+      <c r="AM61" s="12"/>
+      <c r="AN61" s="12"/>
+      <c r="AO61" s="12"/>
+      <c r="AP61" s="12"/>
+      <c r="AQ61" s="12"/>
+      <c r="AR61" s="12"/>
+      <c r="AS61" s="12"/>
+    </row>
+    <row r="62" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="12"/>
+      <c r="AN62" s="12"/>
+      <c r="AO62" s="12"/>
+      <c r="AP62" s="12"/>
+      <c r="AQ62" s="12"/>
+      <c r="AR62" s="12"/>
+      <c r="AS62" s="12"/>
+    </row>
+    <row r="63" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="12"/>
+      <c r="AN63" s="12"/>
+      <c r="AO63" s="12"/>
+      <c r="AP63" s="12"/>
+      <c r="AQ63" s="12"/>
+      <c r="AR63" s="12"/>
+      <c r="AS63" s="12"/>
+    </row>
+    <row r="64" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+      <c r="AM64" s="12"/>
+      <c r="AN64" s="12"/>
+      <c r="AO64" s="12"/>
+      <c r="AP64" s="12"/>
+      <c r="AQ64" s="12"/>
+      <c r="AR64" s="12"/>
+      <c r="AS64" s="12"/>
+    </row>
+    <row r="65" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="12"/>
+      <c r="AC65" s="12"/>
+      <c r="AD65" s="12"/>
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="12"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="12"/>
+      <c r="AM65" s="12"/>
+      <c r="AN65" s="12"/>
+      <c r="AO65" s="12"/>
+      <c r="AP65" s="12"/>
+      <c r="AQ65" s="12"/>
+      <c r="AR65" s="12"/>
+      <c r="AS65" s="12"/>
+    </row>
+    <row r="66" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="12"/>
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="12"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12"/>
+      <c r="AJ66" s="12"/>
+      <c r="AK66" s="12"/>
+      <c r="AL66" s="12"/>
+      <c r="AM66" s="12"/>
+      <c r="AN66" s="12"/>
+      <c r="AO66" s="12"/>
+      <c r="AP66" s="12"/>
+      <c r="AQ66" s="12"/>
+      <c r="AR66" s="12"/>
+      <c r="AS66" s="12"/>
+    </row>
+    <row r="67" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="12"/>
+      <c r="AC67" s="12"/>
+      <c r="AD67" s="12"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+      <c r="AM67" s="12"/>
+      <c r="AN67" s="12"/>
+      <c r="AO67" s="12"/>
+      <c r="AP67" s="12"/>
+      <c r="AQ67" s="12"/>
+      <c r="AR67" s="12"/>
+      <c r="AS67" s="12"/>
+    </row>
+    <row r="68" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="12"/>
+      <c r="AC68" s="12"/>
+      <c r="AD68" s="12"/>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="12"/>
+      <c r="AN68" s="12"/>
+      <c r="AO68" s="12"/>
+      <c r="AP68" s="12"/>
+      <c r="AQ68" s="12"/>
+      <c r="AR68" s="12"/>
+      <c r="AS68" s="12"/>
+    </row>
+    <row r="69" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="12"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
+      <c r="AN69" s="12"/>
+      <c r="AO69" s="12"/>
+      <c r="AP69" s="12"/>
+      <c r="AQ69" s="12"/>
+      <c r="AR69" s="12"/>
+      <c r="AS69" s="12"/>
+    </row>
+    <row r="70" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12"/>
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="12"/>
+      <c r="AJ70" s="12"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="12"/>
+      <c r="AM70" s="12"/>
+      <c r="AN70" s="12"/>
+      <c r="AO70" s="12"/>
+      <c r="AP70" s="12"/>
+      <c r="AQ70" s="12"/>
+      <c r="AR70" s="12"/>
+      <c r="AS70" s="12"/>
+    </row>
+    <row r="71" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
+      <c r="AM71" s="12"/>
+      <c r="AN71" s="12"/>
+      <c r="AO71" s="12"/>
+      <c r="AP71" s="12"/>
+      <c r="AQ71" s="12"/>
+      <c r="AR71" s="12"/>
+      <c r="AS71" s="12"/>
+    </row>
+    <row r="72" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="12"/>
+      <c r="AD72" s="12"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+      <c r="AM72" s="12"/>
+      <c r="AN72" s="12"/>
+      <c r="AO72" s="12"/>
+      <c r="AP72" s="12"/>
+      <c r="AQ72" s="12"/>
+      <c r="AR72" s="12"/>
+      <c r="AS72" s="12"/>
+    </row>
+    <row r="73" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="12"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="12"/>
+      <c r="AM73" s="12"/>
+      <c r="AN73" s="12"/>
+      <c r="AO73" s="12"/>
+      <c r="AP73" s="12"/>
+      <c r="AQ73" s="12"/>
+      <c r="AR73" s="12"/>
+      <c r="AS73" s="12"/>
+    </row>
+    <row r="74" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="12"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="12"/>
+      <c r="AM74" s="12"/>
+      <c r="AN74" s="12"/>
+      <c r="AO74" s="12"/>
+      <c r="AP74" s="12"/>
+      <c r="AQ74" s="12"/>
+      <c r="AR74" s="12"/>
+      <c r="AS74" s="12"/>
+    </row>
+    <row r="75" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="AG75" s="12"/>
+      <c r="AH75" s="12"/>
+      <c r="AI75" s="12"/>
+      <c r="AJ75" s="12"/>
+      <c r="AK75" s="12"/>
+      <c r="AL75" s="12"/>
+      <c r="AM75" s="12"/>
+      <c r="AN75" s="12"/>
+      <c r="AO75" s="12"/>
+      <c r="AP75" s="12"/>
+      <c r="AQ75" s="12"/>
+      <c r="AR75" s="12"/>
+      <c r="AS75" s="12"/>
+    </row>
+    <row r="76" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="AG76" s="12"/>
+      <c r="AH76" s="12"/>
+      <c r="AI76" s="12"/>
+      <c r="AJ76" s="12"/>
+      <c r="AK76" s="12"/>
+      <c r="AL76" s="12"/>
+      <c r="AM76" s="12"/>
+      <c r="AN76" s="12"/>
+      <c r="AO76" s="12"/>
+      <c r="AP76" s="12"/>
+      <c r="AQ76" s="12"/>
+      <c r="AR76" s="12"/>
+      <c r="AS76" s="12"/>
+    </row>
+    <row r="77" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="AG77" s="12"/>
+      <c r="AH77" s="12"/>
+      <c r="AI77" s="12"/>
+      <c r="AJ77" s="12"/>
+      <c r="AK77" s="12"/>
+      <c r="AL77" s="12"/>
+      <c r="AM77" s="12"/>
+      <c r="AN77" s="12"/>
+      <c r="AO77" s="12"/>
+      <c r="AP77" s="12"/>
+      <c r="AQ77" s="12"/>
+      <c r="AR77" s="12"/>
+      <c r="AS77" s="12"/>
+    </row>
+    <row r="78" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="AG78" s="12"/>
+      <c r="AH78" s="12"/>
+      <c r="AI78" s="12"/>
+      <c r="AJ78" s="12"/>
+      <c r="AK78" s="12"/>
+      <c r="AL78" s="12"/>
+      <c r="AM78" s="12"/>
+      <c r="AN78" s="12"/>
+      <c r="AO78" s="12"/>
+      <c r="AP78" s="12"/>
+      <c r="AQ78" s="12"/>
+      <c r="AR78" s="12"/>
+      <c r="AS78" s="12"/>
+    </row>
+    <row r="79" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="AG79" s="12"/>
+      <c r="AH79" s="12"/>
+      <c r="AI79" s="12"/>
+      <c r="AJ79" s="12"/>
+      <c r="AK79" s="12"/>
+      <c r="AL79" s="12"/>
+      <c r="AM79" s="12"/>
+      <c r="AN79" s="12"/>
+      <c r="AO79" s="12"/>
+      <c r="AP79" s="12"/>
+      <c r="AQ79" s="12"/>
+      <c r="AR79" s="12"/>
+      <c r="AS79" s="12"/>
+    </row>
+    <row r="80" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="AG80" s="12"/>
+      <c r="AH80" s="12"/>
+      <c r="AI80" s="12"/>
+      <c r="AJ80" s="12"/>
+      <c r="AK80" s="12"/>
+      <c r="AL80" s="12"/>
+      <c r="AM80" s="12"/>
+      <c r="AN80" s="12"/>
+      <c r="AO80" s="12"/>
+      <c r="AP80" s="12"/>
+      <c r="AQ80" s="12"/>
+      <c r="AR80" s="12"/>
+      <c r="AS80" s="12"/>
+    </row>
+    <row r="81" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG81" s="12"/>
+      <c r="AH81" s="12"/>
+      <c r="AI81" s="12"/>
+      <c r="AJ81" s="12"/>
+      <c r="AK81" s="12"/>
+      <c r="AL81" s="12"/>
+      <c r="AM81" s="12"/>
+      <c r="AN81" s="12"/>
+      <c r="AO81" s="12"/>
+      <c r="AP81" s="12"/>
+      <c r="AQ81" s="12"/>
+      <c r="AR81" s="12"/>
+      <c r="AS81" s="12"/>
+    </row>
+    <row r="82" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG82" s="12"/>
+      <c r="AH82" s="12"/>
+      <c r="AI82" s="12"/>
+      <c r="AJ82" s="12"/>
+      <c r="AK82" s="12"/>
+      <c r="AL82" s="12"/>
+      <c r="AM82" s="12"/>
+      <c r="AN82" s="12"/>
+      <c r="AO82" s="12"/>
+      <c r="AP82" s="12"/>
+      <c r="AQ82" s="12"/>
+      <c r="AR82" s="12"/>
+      <c r="AS82" s="12"/>
+    </row>
+    <row r="83" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG83" s="12"/>
+      <c r="AH83" s="12"/>
+      <c r="AI83" s="12"/>
+      <c r="AJ83" s="12"/>
+      <c r="AK83" s="12"/>
+      <c r="AL83" s="12"/>
+      <c r="AM83" s="12"/>
+      <c r="AN83" s="12"/>
+      <c r="AO83" s="12"/>
+      <c r="AP83" s="12"/>
+      <c r="AQ83" s="12"/>
+      <c r="AR83" s="12"/>
+      <c r="AS83" s="12"/>
+    </row>
+    <row r="84" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG84" s="12"/>
+      <c r="AH84" s="12"/>
+      <c r="AI84" s="12"/>
+      <c r="AJ84" s="12"/>
+      <c r="AK84" s="12"/>
+      <c r="AL84" s="12"/>
+      <c r="AM84" s="12"/>
+      <c r="AN84" s="12"/>
+      <c r="AO84" s="12"/>
+      <c r="AP84" s="12"/>
+      <c r="AQ84" s="12"/>
+      <c r="AR84" s="12"/>
+      <c r="AS84" s="12"/>
+    </row>
+    <row r="85" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG85" s="12"/>
+      <c r="AH85" s="12"/>
+      <c r="AI85" s="12"/>
+      <c r="AJ85" s="12"/>
+      <c r="AK85" s="12"/>
+      <c r="AL85" s="12"/>
+      <c r="AM85" s="12"/>
+      <c r="AN85" s="12"/>
+      <c r="AO85" s="12"/>
+      <c r="AP85" s="12"/>
+      <c r="AQ85" s="12"/>
+      <c r="AR85" s="12"/>
+      <c r="AS85" s="12"/>
+    </row>
+    <row r="86" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG86" s="12"/>
+      <c r="AH86" s="12"/>
+      <c r="AI86" s="12"/>
+      <c r="AJ86" s="12"/>
+      <c r="AK86" s="12"/>
+      <c r="AL86" s="12"/>
+      <c r="AM86" s="12"/>
+      <c r="AN86" s="12"/>
+      <c r="AO86" s="12"/>
+      <c r="AP86" s="12"/>
+      <c r="AQ86" s="12"/>
+      <c r="AR86" s="12"/>
+      <c r="AS86" s="12"/>
+    </row>
+    <row r="87" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG87" s="12"/>
+      <c r="AH87" s="12"/>
+      <c r="AI87" s="12"/>
+      <c r="AJ87" s="12"/>
+      <c r="AK87" s="12"/>
+      <c r="AL87" s="12"/>
+      <c r="AM87" s="12"/>
+      <c r="AN87" s="12"/>
+      <c r="AO87" s="12"/>
+      <c r="AP87" s="12"/>
+      <c r="AQ87" s="12"/>
+      <c r="AR87" s="12"/>
+      <c r="AS87" s="12"/>
+    </row>
+    <row r="88" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG88" s="12"/>
+      <c r="AH88" s="12"/>
+      <c r="AI88" s="12"/>
+      <c r="AJ88" s="12"/>
+      <c r="AK88" s="12"/>
+      <c r="AL88" s="12"/>
+      <c r="AM88" s="12"/>
+      <c r="AN88" s="12"/>
+      <c r="AO88" s="12"/>
+      <c r="AP88" s="12"/>
+      <c r="AQ88" s="12"/>
+      <c r="AR88" s="12"/>
+      <c r="AS88" s="12"/>
+    </row>
+    <row r="89" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG89" s="12"/>
+      <c r="AH89" s="12"/>
+      <c r="AI89" s="12"/>
+      <c r="AJ89" s="12"/>
+      <c r="AK89" s="12"/>
+      <c r="AL89" s="12"/>
+      <c r="AM89" s="12"/>
+      <c r="AN89" s="12"/>
+      <c r="AO89" s="12"/>
+      <c r="AP89" s="12"/>
+      <c r="AQ89" s="12"/>
+      <c r="AR89" s="12"/>
+      <c r="AS89" s="12"/>
+    </row>
+    <row r="90" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG90" s="12"/>
+      <c r="AH90" s="12"/>
+      <c r="AI90" s="12"/>
+      <c r="AJ90" s="12"/>
+      <c r="AK90" s="12"/>
+      <c r="AL90" s="12"/>
+      <c r="AM90" s="12"/>
+      <c r="AN90" s="12"/>
+      <c r="AO90" s="12"/>
+      <c r="AP90" s="12"/>
+      <c r="AQ90" s="12"/>
+      <c r="AR90" s="12"/>
+      <c r="AS90" s="12"/>
+    </row>
+    <row r="91" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG91" s="12"/>
+      <c r="AH91" s="12"/>
+      <c r="AI91" s="12"/>
+      <c r="AJ91" s="12"/>
+      <c r="AK91" s="12"/>
+      <c r="AL91" s="12"/>
+      <c r="AM91" s="12"/>
+      <c r="AN91" s="12"/>
+      <c r="AO91" s="12"/>
+      <c r="AP91" s="12"/>
+      <c r="AQ91" s="12"/>
+      <c r="AR91" s="12"/>
+      <c r="AS91" s="12"/>
+    </row>
+    <row r="92" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG92" s="12"/>
+      <c r="AH92" s="12"/>
+      <c r="AI92" s="12"/>
+      <c r="AJ92" s="12"/>
+      <c r="AK92" s="12"/>
+      <c r="AL92" s="12"/>
+      <c r="AM92" s="12"/>
+      <c r="AN92" s="12"/>
+      <c r="AO92" s="12"/>
+      <c r="AP92" s="12"/>
+      <c r="AQ92" s="12"/>
+      <c r="AR92" s="12"/>
+      <c r="AS92" s="12"/>
+    </row>
+    <row r="93" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG93" s="12"/>
+      <c r="AH93" s="12"/>
+      <c r="AI93" s="12"/>
+      <c r="AJ93" s="12"/>
+      <c r="AK93" s="12"/>
+      <c r="AL93" s="12"/>
+      <c r="AM93" s="12"/>
+      <c r="AN93" s="12"/>
+      <c r="AO93" s="12"/>
+      <c r="AP93" s="12"/>
+      <c r="AQ93" s="12"/>
+      <c r="AR93" s="12"/>
+      <c r="AS93" s="12"/>
+    </row>
+    <row r="94" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG94" s="12"/>
+      <c r="AH94" s="12"/>
+      <c r="AI94" s="12"/>
+      <c r="AJ94" s="12"/>
+      <c r="AK94" s="12"/>
+      <c r="AL94" s="12"/>
+      <c r="AM94" s="12"/>
+      <c r="AN94" s="12"/>
+      <c r="AO94" s="12"/>
+      <c r="AP94" s="12"/>
+      <c r="AQ94" s="12"/>
+      <c r="AR94" s="12"/>
+      <c r="AS94" s="12"/>
+    </row>
+    <row r="95" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG95" s="12"/>
+      <c r="AH95" s="12"/>
+      <c r="AI95" s="12"/>
+      <c r="AJ95" s="12"/>
+      <c r="AK95" s="12"/>
+      <c r="AL95" s="12"/>
+      <c r="AM95" s="12"/>
+      <c r="AN95" s="12"/>
+      <c r="AO95" s="12"/>
+      <c r="AP95" s="12"/>
+      <c r="AQ95" s="12"/>
+      <c r="AR95" s="12"/>
+      <c r="AS95" s="12"/>
+    </row>
+    <row r="96" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG96" s="12"/>
+      <c r="AH96" s="12"/>
+      <c r="AI96" s="12"/>
+      <c r="AJ96" s="12"/>
+      <c r="AK96" s="12"/>
+      <c r="AL96" s="12"/>
+      <c r="AM96" s="12"/>
+      <c r="AN96" s="12"/>
+      <c r="AO96" s="12"/>
+      <c r="AP96" s="12"/>
+      <c r="AQ96" s="12"/>
+      <c r="AR96" s="12"/>
+      <c r="AS96" s="12"/>
+    </row>
+    <row r="97" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG97" s="12"/>
+      <c r="AH97" s="12"/>
+      <c r="AI97" s="12"/>
+      <c r="AJ97" s="12"/>
+      <c r="AK97" s="12"/>
+      <c r="AL97" s="12"/>
+      <c r="AM97" s="12"/>
+      <c r="AN97" s="12"/>
+      <c r="AO97" s="12"/>
+      <c r="AP97" s="12"/>
+      <c r="AQ97" s="12"/>
+      <c r="AR97" s="12"/>
+      <c r="AS97" s="12"/>
+    </row>
+    <row r="98" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG98" s="12"/>
+      <c r="AH98" s="12"/>
+      <c r="AI98" s="12"/>
+      <c r="AJ98" s="12"/>
+      <c r="AK98" s="12"/>
+      <c r="AL98" s="12"/>
+      <c r="AM98" s="12"/>
+      <c r="AN98" s="12"/>
+      <c r="AO98" s="12"/>
+      <c r="AP98" s="12"/>
+      <c r="AQ98" s="12"/>
+      <c r="AR98" s="12"/>
+      <c r="AS98" s="12"/>
+    </row>
+    <row r="99" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG99" s="12"/>
+      <c r="AH99" s="12"/>
+      <c r="AI99" s="12"/>
+      <c r="AJ99" s="12"/>
+      <c r="AK99" s="12"/>
+      <c r="AL99" s="12"/>
+      <c r="AM99" s="12"/>
+      <c r="AN99" s="12"/>
+      <c r="AO99" s="12"/>
+      <c r="AP99" s="12"/>
+      <c r="AQ99" s="12"/>
+      <c r="AR99" s="12"/>
+      <c r="AS99" s="12"/>
+    </row>
+    <row r="100" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG100" s="12"/>
+      <c r="AH100" s="12"/>
+      <c r="AI100" s="12"/>
+      <c r="AJ100" s="12"/>
+      <c r="AK100" s="12"/>
+      <c r="AL100" s="12"/>
+      <c r="AM100" s="12"/>
+      <c r="AN100" s="12"/>
+      <c r="AO100" s="12"/>
+      <c r="AP100" s="12"/>
+      <c r="AQ100" s="12"/>
+      <c r="AR100" s="12"/>
+      <c r="AS100" s="12"/>
+    </row>
+    <row r="101" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG101" s="12"/>
+      <c r="AH101" s="12"/>
+      <c r="AI101" s="12"/>
+      <c r="AJ101" s="12"/>
+      <c r="AK101" s="12"/>
+      <c r="AL101" s="12"/>
+      <c r="AM101" s="12"/>
+      <c r="AN101" s="12"/>
+      <c r="AO101" s="12"/>
+      <c r="AP101" s="12"/>
+      <c r="AQ101" s="12"/>
+      <c r="AR101" s="12"/>
+      <c r="AS101" s="12"/>
+    </row>
+    <row r="102" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG102" s="12"/>
+      <c r="AH102" s="12"/>
+      <c r="AI102" s="12"/>
+      <c r="AJ102" s="12"/>
+      <c r="AK102" s="12"/>
+      <c r="AL102" s="12"/>
+      <c r="AM102" s="12"/>
+      <c r="AN102" s="12"/>
+      <c r="AO102" s="12"/>
+      <c r="AP102" s="12"/>
+      <c r="AQ102" s="12"/>
+      <c r="AR102" s="12"/>
+      <c r="AS102" s="12"/>
+    </row>
+    <row r="103" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG103" s="12"/>
+      <c r="AH103" s="12"/>
+      <c r="AI103" s="12"/>
+      <c r="AJ103" s="12"/>
+      <c r="AK103" s="12"/>
+      <c r="AL103" s="12"/>
+      <c r="AM103" s="12"/>
+      <c r="AN103" s="12"/>
+      <c r="AO103" s="12"/>
+      <c r="AP103" s="12"/>
+      <c r="AQ103" s="12"/>
+      <c r="AR103" s="12"/>
+      <c r="AS103" s="12"/>
+    </row>
+    <row r="104" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG104" s="12"/>
+      <c r="AH104" s="12"/>
+      <c r="AI104" s="12"/>
+      <c r="AJ104" s="12"/>
+      <c r="AK104" s="12"/>
+      <c r="AL104" s="12"/>
+      <c r="AM104" s="12"/>
+      <c r="AN104" s="12"/>
+      <c r="AO104" s="12"/>
+      <c r="AP104" s="12"/>
+      <c r="AQ104" s="12"/>
+      <c r="AR104" s="12"/>
+      <c r="AS104" s="12"/>
+    </row>
+    <row r="105" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG105" s="12"/>
+      <c r="AH105" s="12"/>
+      <c r="AI105" s="12"/>
+      <c r="AJ105" s="12"/>
+      <c r="AK105" s="12"/>
+      <c r="AL105" s="12"/>
+      <c r="AM105" s="12"/>
+      <c r="AN105" s="12"/>
+      <c r="AO105" s="12"/>
+      <c r="AP105" s="12"/>
+      <c r="AQ105" s="12"/>
+      <c r="AR105" s="12"/>
+      <c r="AS105" s="12"/>
+    </row>
+    <row r="106" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG106" s="12"/>
+      <c r="AH106" s="12"/>
+      <c r="AI106" s="12"/>
+      <c r="AJ106" s="12"/>
+      <c r="AK106" s="12"/>
+      <c r="AL106" s="12"/>
+      <c r="AM106" s="12"/>
+      <c r="AN106" s="12"/>
+      <c r="AO106" s="12"/>
+      <c r="AP106" s="12"/>
+      <c r="AQ106" s="12"/>
+      <c r="AR106" s="12"/>
+      <c r="AS106" s="12"/>
+    </row>
+    <row r="107" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG107" s="12"/>
+      <c r="AH107" s="12"/>
+      <c r="AI107" s="12"/>
+      <c r="AJ107" s="12"/>
+      <c r="AK107" s="12"/>
+      <c r="AL107" s="12"/>
+      <c r="AM107" s="12"/>
+      <c r="AN107" s="12"/>
+      <c r="AO107" s="12"/>
+      <c r="AP107" s="12"/>
+      <c r="AQ107" s="12"/>
+      <c r="AR107" s="12"/>
+      <c r="AS107" s="12"/>
+    </row>
+    <row r="108" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG108" s="12"/>
+      <c r="AH108" s="12"/>
+      <c r="AI108" s="12"/>
+      <c r="AJ108" s="12"/>
+      <c r="AK108" s="12"/>
+      <c r="AL108" s="12"/>
+      <c r="AM108" s="12"/>
+      <c r="AN108" s="12"/>
+      <c r="AO108" s="12"/>
+      <c r="AP108" s="12"/>
+      <c r="AQ108" s="12"/>
+      <c r="AR108" s="12"/>
+      <c r="AS108" s="12"/>
+    </row>
+    <row r="109" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG109" s="12"/>
+      <c r="AH109" s="12"/>
+      <c r="AI109" s="12"/>
+      <c r="AJ109" s="12"/>
+      <c r="AK109" s="12"/>
+      <c r="AL109" s="12"/>
+      <c r="AM109" s="12"/>
+      <c r="AN109" s="12"/>
+      <c r="AO109" s="12"/>
+      <c r="AP109" s="12"/>
+      <c r="AQ109" s="12"/>
+      <c r="AR109" s="12"/>
+      <c r="AS109" s="12"/>
+    </row>
+    <row r="110" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG110" s="12"/>
+      <c r="AH110" s="12"/>
+      <c r="AI110" s="12"/>
+      <c r="AJ110" s="12"/>
+      <c r="AK110" s="12"/>
+      <c r="AL110" s="12"/>
+      <c r="AM110" s="12"/>
+      <c r="AN110" s="12"/>
+      <c r="AO110" s="12"/>
+      <c r="AP110" s="12"/>
+      <c r="AQ110" s="12"/>
+      <c r="AR110" s="12"/>
+      <c r="AS110" s="12"/>
+    </row>
+    <row r="111" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG111" s="12"/>
+      <c r="AH111" s="12"/>
+      <c r="AI111" s="12"/>
+      <c r="AJ111" s="12"/>
+      <c r="AK111" s="12"/>
+      <c r="AL111" s="12"/>
+      <c r="AM111" s="12"/>
+      <c r="AN111" s="12"/>
+      <c r="AO111" s="12"/>
+      <c r="AP111" s="12"/>
+      <c r="AQ111" s="12"/>
+      <c r="AR111" s="12"/>
+      <c r="AS111" s="12"/>
+    </row>
+    <row r="112" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG112" s="12"/>
+      <c r="AH112" s="12"/>
+      <c r="AI112" s="12"/>
+      <c r="AJ112" s="12"/>
+      <c r="AK112" s="12"/>
+      <c r="AL112" s="12"/>
+      <c r="AM112" s="12"/>
+      <c r="AN112" s="12"/>
+      <c r="AO112" s="12"/>
+      <c r="AP112" s="12"/>
+      <c r="AQ112" s="12"/>
+      <c r="AR112" s="12"/>
+      <c r="AS112" s="12"/>
+    </row>
+    <row r="113" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG113" s="12"/>
+      <c r="AH113" s="12"/>
+      <c r="AI113" s="12"/>
+      <c r="AJ113" s="12"/>
+      <c r="AK113" s="12"/>
+      <c r="AL113" s="12"/>
+      <c r="AM113" s="12"/>
+      <c r="AN113" s="12"/>
+      <c r="AO113" s="12"/>
+      <c r="AP113" s="12"/>
+      <c r="AQ113" s="12"/>
+      <c r="AR113" s="12"/>
+      <c r="AS113" s="12"/>
+    </row>
+    <row r="114" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG114" s="12"/>
+      <c r="AH114" s="12"/>
+      <c r="AI114" s="12"/>
+      <c r="AJ114" s="12"/>
+      <c r="AK114" s="12"/>
+      <c r="AL114" s="12"/>
+      <c r="AM114" s="12"/>
+      <c r="AN114" s="12"/>
+      <c r="AO114" s="12"/>
+      <c r="AP114" s="12"/>
+      <c r="AQ114" s="12"/>
+      <c r="AR114" s="12"/>
+      <c r="AS114" s="12"/>
+    </row>
+    <row r="115" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG115" s="12"/>
+      <c r="AH115" s="12"/>
+      <c r="AI115" s="12"/>
+      <c r="AJ115" s="12"/>
+      <c r="AK115" s="12"/>
+      <c r="AL115" s="12"/>
+      <c r="AM115" s="12"/>
+      <c r="AN115" s="12"/>
+      <c r="AO115" s="12"/>
+      <c r="AP115" s="12"/>
+      <c r="AQ115" s="12"/>
+      <c r="AR115" s="12"/>
+      <c r="AS115" s="12"/>
+    </row>
+    <row r="116" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG116" s="12"/>
+      <c r="AH116" s="12"/>
+      <c r="AI116" s="12"/>
+      <c r="AJ116" s="12"/>
+      <c r="AK116" s="12"/>
+      <c r="AL116" s="12"/>
+      <c r="AM116" s="12"/>
+      <c r="AN116" s="12"/>
+      <c r="AO116" s="12"/>
+      <c r="AP116" s="12"/>
+      <c r="AQ116" s="12"/>
+      <c r="AR116" s="12"/>
+      <c r="AS116" s="12"/>
+    </row>
+    <row r="117" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG117" s="12"/>
+      <c r="AH117" s="12"/>
+      <c r="AI117" s="12"/>
+      <c r="AJ117" s="12"/>
+      <c r="AK117" s="12"/>
+      <c r="AL117" s="12"/>
+      <c r="AM117" s="12"/>
+      <c r="AN117" s="12"/>
+      <c r="AO117" s="12"/>
+      <c r="AP117" s="12"/>
+      <c r="AQ117" s="12"/>
+      <c r="AR117" s="12"/>
+      <c r="AS117" s="12"/>
+    </row>
+    <row r="118" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG118" s="12"/>
+      <c r="AH118" s="12"/>
+      <c r="AI118" s="12"/>
+      <c r="AJ118" s="12"/>
+      <c r="AK118" s="12"/>
+      <c r="AL118" s="12"/>
+      <c r="AM118" s="12"/>
+      <c r="AN118" s="12"/>
+      <c r="AO118" s="12"/>
+      <c r="AP118" s="12"/>
+      <c r="AQ118" s="12"/>
+      <c r="AR118" s="12"/>
+      <c r="AS118" s="12"/>
+    </row>
+    <row r="119" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG119" s="12"/>
+      <c r="AH119" s="12"/>
+      <c r="AI119" s="12"/>
+      <c r="AJ119" s="12"/>
+      <c r="AK119" s="12"/>
+      <c r="AL119" s="12"/>
+      <c r="AM119" s="12"/>
+      <c r="AN119" s="12"/>
+      <c r="AO119" s="12"/>
+      <c r="AP119" s="12"/>
+      <c r="AQ119" s="12"/>
+      <c r="AR119" s="12"/>
+      <c r="AS119" s="12"/>
+    </row>
+    <row r="120" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG120" s="12"/>
+      <c r="AH120" s="12"/>
+      <c r="AI120" s="12"/>
+      <c r="AJ120" s="12"/>
+      <c r="AK120" s="12"/>
+      <c r="AL120" s="12"/>
+      <c r="AM120" s="12"/>
+      <c r="AN120" s="12"/>
+      <c r="AO120" s="12"/>
+      <c r="AP120" s="12"/>
+      <c r="AQ120" s="12"/>
+      <c r="AR120" s="12"/>
+      <c r="AS120" s="12"/>
+    </row>
+    <row r="121" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG121" s="12"/>
+      <c r="AH121" s="12"/>
+      <c r="AI121" s="12"/>
+      <c r="AJ121" s="12"/>
+      <c r="AK121" s="12"/>
+      <c r="AL121" s="12"/>
+      <c r="AM121" s="12"/>
+      <c r="AN121" s="12"/>
+      <c r="AO121" s="12"/>
+      <c r="AP121" s="12"/>
+      <c r="AQ121" s="12"/>
+      <c r="AR121" s="12"/>
+      <c r="AS121" s="12"/>
+    </row>
+    <row r="122" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG122" s="12"/>
+      <c r="AH122" s="12"/>
+      <c r="AI122" s="12"/>
+      <c r="AJ122" s="12"/>
+      <c r="AK122" s="12"/>
+      <c r="AL122" s="12"/>
+      <c r="AM122" s="12"/>
+      <c r="AN122" s="12"/>
+      <c r="AO122" s="12"/>
+      <c r="AP122" s="12"/>
+      <c r="AQ122" s="12"/>
+      <c r="AR122" s="12"/>
+      <c r="AS122" s="12"/>
+    </row>
+    <row r="123" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG123" s="12"/>
+      <c r="AH123" s="12"/>
+      <c r="AI123" s="12"/>
+      <c r="AJ123" s="12"/>
+      <c r="AK123" s="12"/>
+      <c r="AL123" s="12"/>
+      <c r="AM123" s="12"/>
+      <c r="AN123" s="12"/>
+      <c r="AO123" s="12"/>
+      <c r="AP123" s="12"/>
+      <c r="AQ123" s="12"/>
+      <c r="AR123" s="12"/>
+      <c r="AS123" s="12"/>
+    </row>
+    <row r="124" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG124" s="12"/>
+      <c r="AH124" s="12"/>
+      <c r="AI124" s="12"/>
+      <c r="AJ124" s="12"/>
+      <c r="AK124" s="12"/>
+      <c r="AL124" s="12"/>
+      <c r="AM124" s="12"/>
+      <c r="AN124" s="12"/>
+      <c r="AO124" s="12"/>
+      <c r="AP124" s="12"/>
+      <c r="AQ124" s="12"/>
+      <c r="AR124" s="12"/>
+      <c r="AS124" s="12"/>
+    </row>
+    <row r="125" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG125" s="12"/>
+      <c r="AH125" s="12"/>
+      <c r="AI125" s="12"/>
+      <c r="AJ125" s="12"/>
+      <c r="AK125" s="12"/>
+      <c r="AL125" s="12"/>
+      <c r="AM125" s="12"/>
+      <c r="AN125" s="12"/>
+      <c r="AO125" s="12"/>
+      <c r="AP125" s="12"/>
+      <c r="AQ125" s="12"/>
+      <c r="AR125" s="12"/>
+      <c r="AS125" s="12"/>
+    </row>
+    <row r="126" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG126" s="12"/>
+      <c r="AH126" s="12"/>
+      <c r="AI126" s="12"/>
+      <c r="AJ126" s="12"/>
+      <c r="AK126" s="12"/>
+      <c r="AL126" s="12"/>
+      <c r="AM126" s="12"/>
+      <c r="AN126" s="12"/>
+      <c r="AO126" s="12"/>
+      <c r="AP126" s="12"/>
+      <c r="AQ126" s="12"/>
+      <c r="AR126" s="12"/>
+      <c r="AS126" s="12"/>
+    </row>
+    <row r="127" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG127" s="12"/>
+      <c r="AH127" s="12"/>
+      <c r="AI127" s="12"/>
+      <c r="AJ127" s="12"/>
+      <c r="AK127" s="12"/>
+      <c r="AL127" s="12"/>
+      <c r="AM127" s="12"/>
+      <c r="AN127" s="12"/>
+      <c r="AO127" s="12"/>
+      <c r="AP127" s="12"/>
+      <c r="AQ127" s="12"/>
+      <c r="AR127" s="12"/>
+      <c r="AS127" s="12"/>
+    </row>
+    <row r="128" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG128" s="12"/>
+      <c r="AH128" s="12"/>
+      <c r="AI128" s="12"/>
+      <c r="AJ128" s="12"/>
+      <c r="AK128" s="12"/>
+      <c r="AL128" s="12"/>
+      <c r="AM128" s="12"/>
+      <c r="AN128" s="12"/>
+      <c r="AO128" s="12"/>
+      <c r="AP128" s="12"/>
+      <c r="AQ128" s="12"/>
+      <c r="AR128" s="12"/>
+      <c r="AS128" s="12"/>
+    </row>
+    <row r="129" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG129" s="12"/>
+      <c r="AH129" s="12"/>
+      <c r="AI129" s="12"/>
+      <c r="AJ129" s="12"/>
+      <c r="AK129" s="12"/>
+      <c r="AL129" s="12"/>
+      <c r="AM129" s="12"/>
+      <c r="AN129" s="12"/>
+      <c r="AO129" s="12"/>
+      <c r="AP129" s="12"/>
+      <c r="AQ129" s="12"/>
+      <c r="AR129" s="12"/>
+      <c r="AS129" s="12"/>
+    </row>
+    <row r="130" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG130" s="12"/>
+      <c r="AH130" s="12"/>
+      <c r="AI130" s="12"/>
+      <c r="AJ130" s="12"/>
+      <c r="AK130" s="12"/>
+      <c r="AL130" s="12"/>
+      <c r="AM130" s="12"/>
+      <c r="AN130" s="12"/>
+      <c r="AO130" s="12"/>
+      <c r="AP130" s="12"/>
+      <c r="AQ130" s="12"/>
+      <c r="AR130" s="12"/>
+      <c r="AS130" s="12"/>
+    </row>
+    <row r="131" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG131" s="12"/>
+      <c r="AH131" s="12"/>
+      <c r="AI131" s="12"/>
+      <c r="AJ131" s="12"/>
+      <c r="AK131" s="12"/>
+      <c r="AL131" s="12"/>
+      <c r="AM131" s="12"/>
+      <c r="AN131" s="12"/>
+      <c r="AO131" s="12"/>
+      <c r="AP131" s="12"/>
+      <c r="AQ131" s="12"/>
+      <c r="AR131" s="12"/>
+      <c r="AS131" s="12"/>
+    </row>
+    <row r="132" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG132" s="12"/>
+      <c r="AH132" s="12"/>
+      <c r="AI132" s="12"/>
+      <c r="AJ132" s="12"/>
+      <c r="AK132" s="12"/>
+      <c r="AL132" s="12"/>
+      <c r="AM132" s="12"/>
+      <c r="AN132" s="12"/>
+      <c r="AO132" s="12"/>
+      <c r="AP132" s="12"/>
+      <c r="AQ132" s="12"/>
+      <c r="AR132" s="12"/>
+      <c r="AS132" s="12"/>
+    </row>
+    <row r="133" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG133" s="12"/>
+      <c r="AH133" s="12"/>
+      <c r="AI133" s="12"/>
+      <c r="AJ133" s="12"/>
+      <c r="AK133" s="12"/>
+      <c r="AL133" s="12"/>
+      <c r="AM133" s="12"/>
+      <c r="AN133" s="12"/>
+      <c r="AO133" s="12"/>
+      <c r="AP133" s="12"/>
+      <c r="AQ133" s="12"/>
+      <c r="AR133" s="12"/>
+      <c r="AS133" s="12"/>
+    </row>
+    <row r="134" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG134" s="12"/>
+      <c r="AH134" s="12"/>
+      <c r="AI134" s="12"/>
+      <c r="AJ134" s="12"/>
+      <c r="AK134" s="12"/>
+      <c r="AL134" s="12"/>
+      <c r="AM134" s="12"/>
+      <c r="AN134" s="12"/>
+      <c r="AO134" s="12"/>
+      <c r="AP134" s="12"/>
+      <c r="AQ134" s="12"/>
+      <c r="AR134" s="12"/>
+      <c r="AS134" s="12"/>
+    </row>
+    <row r="135" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG135" s="12"/>
+      <c r="AH135" s="12"/>
+      <c r="AI135" s="12"/>
+      <c r="AJ135" s="12"/>
+      <c r="AK135" s="12"/>
+      <c r="AL135" s="12"/>
+      <c r="AM135" s="12"/>
+      <c r="AN135" s="12"/>
+      <c r="AO135" s="12"/>
+      <c r="AP135" s="12"/>
+      <c r="AQ135" s="12"/>
+      <c r="AR135" s="12"/>
+      <c r="AS135" s="12"/>
+    </row>
+    <row r="136" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG136" s="12"/>
+      <c r="AH136" s="12"/>
+      <c r="AI136" s="12"/>
+      <c r="AJ136" s="12"/>
+      <c r="AK136" s="12"/>
+      <c r="AL136" s="12"/>
+      <c r="AM136" s="12"/>
+      <c r="AN136" s="12"/>
+      <c r="AO136" s="12"/>
+      <c r="AP136" s="12"/>
+      <c r="AQ136" s="12"/>
+      <c r="AR136" s="12"/>
+      <c r="AS136" s="12"/>
+    </row>
+    <row r="137" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG137" s="12"/>
+      <c r="AH137" s="12"/>
+      <c r="AI137" s="12"/>
+      <c r="AJ137" s="12"/>
+      <c r="AK137" s="12"/>
+      <c r="AL137" s="12"/>
+      <c r="AM137" s="12"/>
+      <c r="AN137" s="12"/>
+      <c r="AO137" s="12"/>
+      <c r="AP137" s="12"/>
+      <c r="AQ137" s="12"/>
+      <c r="AR137" s="12"/>
+      <c r="AS137" s="12"/>
+    </row>
+    <row r="138" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG138" s="12"/>
+      <c r="AH138" s="12"/>
+      <c r="AI138" s="12"/>
+      <c r="AJ138" s="12"/>
+      <c r="AK138" s="12"/>
+      <c r="AL138" s="12"/>
+      <c r="AM138" s="12"/>
+      <c r="AN138" s="12"/>
+      <c r="AO138" s="12"/>
+      <c r="AP138" s="12"/>
+      <c r="AQ138" s="12"/>
+      <c r="AR138" s="12"/>
+      <c r="AS138" s="12"/>
+    </row>
+    <row r="139" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG139" s="12"/>
+      <c r="AH139" s="12"/>
+      <c r="AI139" s="12"/>
+      <c r="AJ139" s="12"/>
+      <c r="AK139" s="12"/>
+      <c r="AL139" s="12"/>
+      <c r="AM139" s="12"/>
+      <c r="AN139" s="12"/>
+      <c r="AO139" s="12"/>
+      <c r="AP139" s="12"/>
+      <c r="AQ139" s="12"/>
+      <c r="AR139" s="12"/>
+      <c r="AS139" s="12"/>
+    </row>
+    <row r="140" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG140" s="12"/>
+      <c r="AH140" s="12"/>
+      <c r="AI140" s="12"/>
+      <c r="AJ140" s="12"/>
+      <c r="AK140" s="12"/>
+      <c r="AL140" s="12"/>
+      <c r="AM140" s="12"/>
+      <c r="AN140" s="12"/>
+      <c r="AO140" s="12"/>
+      <c r="AP140" s="12"/>
+      <c r="AQ140" s="12"/>
+      <c r="AR140" s="12"/>
+      <c r="AS140" s="12"/>
+    </row>
+    <row r="141" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG141" s="12"/>
+      <c r="AH141" s="12"/>
+      <c r="AI141" s="12"/>
+      <c r="AJ141" s="12"/>
+      <c r="AK141" s="12"/>
+      <c r="AL141" s="12"/>
+      <c r="AM141" s="12"/>
+      <c r="AN141" s="12"/>
+      <c r="AO141" s="12"/>
+      <c r="AP141" s="12"/>
+      <c r="AQ141" s="12"/>
+      <c r="AR141" s="12"/>
+      <c r="AS141" s="12"/>
+    </row>
+    <row r="142" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG142" s="12"/>
+      <c r="AH142" s="12"/>
+      <c r="AI142" s="12"/>
+      <c r="AJ142" s="12"/>
+      <c r="AK142" s="12"/>
+      <c r="AL142" s="12"/>
+      <c r="AM142" s="12"/>
+      <c r="AN142" s="12"/>
+      <c r="AO142" s="12"/>
+      <c r="AP142" s="12"/>
+      <c r="AQ142" s="12"/>
+      <c r="AR142" s="12"/>
+      <c r="AS142" s="12"/>
+    </row>
+    <row r="143" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG143" s="12"/>
+      <c r="AH143" s="12"/>
+      <c r="AI143" s="12"/>
+      <c r="AJ143" s="12"/>
+      <c r="AK143" s="12"/>
+      <c r="AL143" s="12"/>
+      <c r="AM143" s="12"/>
+      <c r="AN143" s="12"/>
+      <c r="AO143" s="12"/>
+      <c r="AP143" s="12"/>
+      <c r="AQ143" s="12"/>
+      <c r="AR143" s="12"/>
+      <c r="AS143" s="12"/>
+    </row>
+    <row r="144" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG144" s="12"/>
+      <c r="AH144" s="12"/>
+      <c r="AI144" s="12"/>
+      <c r="AJ144" s="12"/>
+      <c r="AK144" s="12"/>
+      <c r="AL144" s="12"/>
+      <c r="AM144" s="12"/>
+      <c r="AN144" s="12"/>
+      <c r="AO144" s="12"/>
+      <c r="AP144" s="12"/>
+      <c r="AQ144" s="12"/>
+      <c r="AR144" s="12"/>
+      <c r="AS144" s="12"/>
+    </row>
+    <row r="145" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG145" s="12"/>
+      <c r="AH145" s="12"/>
+      <c r="AI145" s="12"/>
+      <c r="AJ145" s="12"/>
+      <c r="AK145" s="12"/>
+      <c r="AL145" s="12"/>
+      <c r="AM145" s="12"/>
+      <c r="AN145" s="12"/>
+      <c r="AO145" s="12"/>
+      <c r="AP145" s="12"/>
+      <c r="AQ145" s="12"/>
+      <c r="AR145" s="12"/>
+      <c r="AS145" s="12"/>
+    </row>
+    <row r="146" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG146" s="12"/>
+      <c r="AH146" s="12"/>
+      <c r="AI146" s="12"/>
+      <c r="AJ146" s="12"/>
+      <c r="AK146" s="12"/>
+      <c r="AL146" s="12"/>
+      <c r="AM146" s="12"/>
+      <c r="AN146" s="12"/>
+      <c r="AO146" s="12"/>
+      <c r="AP146" s="12"/>
+      <c r="AQ146" s="12"/>
+      <c r="AR146" s="12"/>
+      <c r="AS146" s="12"/>
+    </row>
+    <row r="147" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG147" s="12"/>
+      <c r="AH147" s="12"/>
+      <c r="AI147" s="12"/>
+      <c r="AJ147" s="12"/>
+      <c r="AK147" s="12"/>
+      <c r="AL147" s="12"/>
+      <c r="AM147" s="12"/>
+      <c r="AN147" s="12"/>
+      <c r="AO147" s="12"/>
+      <c r="AP147" s="12"/>
+      <c r="AQ147" s="12"/>
+      <c r="AR147" s="12"/>
+      <c r="AS147" s="12"/>
+    </row>
+    <row r="148" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG148" s="12"/>
+      <c r="AH148" s="12"/>
+      <c r="AI148" s="12"/>
+      <c r="AJ148" s="12"/>
+      <c r="AK148" s="12"/>
+      <c r="AL148" s="12"/>
+      <c r="AM148" s="12"/>
+      <c r="AN148" s="12"/>
+      <c r="AO148" s="12"/>
+      <c r="AP148" s="12"/>
+      <c r="AQ148" s="12"/>
+      <c r="AR148" s="12"/>
+      <c r="AS148" s="12"/>
+    </row>
+    <row r="149" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG149" s="12"/>
+      <c r="AH149" s="12"/>
+      <c r="AI149" s="12"/>
+      <c r="AJ149" s="12"/>
+      <c r="AK149" s="12"/>
+      <c r="AL149" s="12"/>
+      <c r="AM149" s="12"/>
+      <c r="AN149" s="12"/>
+      <c r="AO149" s="12"/>
+      <c r="AP149" s="12"/>
+      <c r="AQ149" s="12"/>
+      <c r="AR149" s="12"/>
+      <c r="AS149" s="12"/>
+    </row>
+    <row r="150" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG150" s="12"/>
+      <c r="AH150" s="12"/>
+      <c r="AI150" s="12"/>
+      <c r="AJ150" s="12"/>
+      <c r="AK150" s="12"/>
+      <c r="AL150" s="12"/>
+      <c r="AM150" s="12"/>
+      <c r="AN150" s="12"/>
+      <c r="AO150" s="12"/>
+      <c r="AP150" s="12"/>
+      <c r="AQ150" s="12"/>
+      <c r="AR150" s="12"/>
+      <c r="AS150" s="12"/>
+    </row>
+    <row r="151" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG151" s="12"/>
+      <c r="AH151" s="12"/>
+      <c r="AI151" s="12"/>
+      <c r="AJ151" s="12"/>
+      <c r="AK151" s="12"/>
+      <c r="AL151" s="12"/>
+      <c r="AM151" s="12"/>
+      <c r="AN151" s="12"/>
+      <c r="AO151" s="12"/>
+      <c r="AP151" s="12"/>
+      <c r="AQ151" s="12"/>
+      <c r="AR151" s="12"/>
+      <c r="AS151" s="12"/>
+    </row>
+    <row r="152" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG152" s="12"/>
+      <c r="AH152" s="12"/>
+      <c r="AI152" s="12"/>
+      <c r="AJ152" s="12"/>
+      <c r="AK152" s="12"/>
+      <c r="AL152" s="12"/>
+      <c r="AM152" s="12"/>
+      <c r="AN152" s="12"/>
+      <c r="AO152" s="12"/>
+      <c r="AP152" s="12"/>
+      <c r="AQ152" s="12"/>
+      <c r="AR152" s="12"/>
+      <c r="AS152" s="12"/>
+    </row>
+    <row r="153" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG153" s="12"/>
+      <c r="AH153" s="12"/>
+      <c r="AI153" s="12"/>
+      <c r="AJ153" s="12"/>
+      <c r="AK153" s="12"/>
+      <c r="AL153" s="12"/>
+      <c r="AM153" s="12"/>
+      <c r="AN153" s="12"/>
+      <c r="AO153" s="12"/>
+      <c r="AP153" s="12"/>
+      <c r="AQ153" s="12"/>
+      <c r="AR153" s="12"/>
+      <c r="AS153" s="12"/>
+    </row>
+    <row r="154" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG154" s="12"/>
+      <c r="AH154" s="12"/>
+      <c r="AI154" s="12"/>
+      <c r="AJ154" s="12"/>
+      <c r="AK154" s="12"/>
+      <c r="AL154" s="12"/>
+      <c r="AM154" s="12"/>
+      <c r="AN154" s="12"/>
+      <c r="AO154" s="12"/>
+      <c r="AP154" s="12"/>
+      <c r="AQ154" s="12"/>
+      <c r="AR154" s="12"/>
+      <c r="AS154" s="12"/>
+    </row>
+    <row r="155" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG155" s="12"/>
+      <c r="AH155" s="12"/>
+      <c r="AI155" s="12"/>
+      <c r="AJ155" s="12"/>
+      <c r="AK155" s="12"/>
+      <c r="AL155" s="12"/>
+      <c r="AM155" s="12"/>
+      <c r="AN155" s="12"/>
+      <c r="AO155" s="12"/>
+      <c r="AP155" s="12"/>
+      <c r="AQ155" s="12"/>
+      <c r="AR155" s="12"/>
+      <c r="AS155" s="12"/>
+    </row>
+    <row r="156" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG156" s="12"/>
+      <c r="AH156" s="12"/>
+      <c r="AI156" s="12"/>
+      <c r="AJ156" s="12"/>
+      <c r="AK156" s="12"/>
+      <c r="AL156" s="12"/>
+      <c r="AM156" s="12"/>
+      <c r="AN156" s="12"/>
+      <c r="AO156" s="12"/>
+      <c r="AP156" s="12"/>
+      <c r="AQ156" s="12"/>
+      <c r="AR156" s="12"/>
+      <c r="AS156" s="12"/>
+    </row>
+    <row r="157" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG157" s="12"/>
+      <c r="AH157" s="12"/>
+      <c r="AI157" s="12"/>
+      <c r="AJ157" s="12"/>
+      <c r="AK157" s="12"/>
+      <c r="AL157" s="12"/>
+      <c r="AM157" s="12"/>
+      <c r="AN157" s="12"/>
+      <c r="AO157" s="12"/>
+      <c r="AP157" s="12"/>
+      <c r="AQ157" s="12"/>
+      <c r="AR157" s="12"/>
+      <c r="AS157" s="12"/>
+    </row>
+    <row r="158" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG158" s="12"/>
+      <c r="AH158" s="12"/>
+      <c r="AI158" s="12"/>
+      <c r="AJ158" s="12"/>
+      <c r="AK158" s="12"/>
+      <c r="AL158" s="12"/>
+      <c r="AM158" s="12"/>
+      <c r="AN158" s="12"/>
+      <c r="AO158" s="12"/>
+      <c r="AP158" s="12"/>
+      <c r="AQ158" s="12"/>
+      <c r="AR158" s="12"/>
+      <c r="AS158" s="12"/>
+    </row>
+    <row r="159" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG159" s="12"/>
+      <c r="AH159" s="12"/>
+      <c r="AI159" s="12"/>
+      <c r="AJ159" s="12"/>
+      <c r="AK159" s="12"/>
+      <c r="AL159" s="12"/>
+      <c r="AM159" s="12"/>
+      <c r="AN159" s="12"/>
+      <c r="AO159" s="12"/>
+      <c r="AP159" s="12"/>
+      <c r="AQ159" s="12"/>
+      <c r="AR159" s="12"/>
+      <c r="AS159" s="12"/>
+    </row>
+    <row r="160" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG160" s="12"/>
+      <c r="AH160" s="12"/>
+      <c r="AI160" s="12"/>
+      <c r="AJ160" s="12"/>
+      <c r="AK160" s="12"/>
+      <c r="AL160" s="12"/>
+      <c r="AM160" s="12"/>
+      <c r="AN160" s="12"/>
+      <c r="AO160" s="12"/>
+      <c r="AP160" s="12"/>
+      <c r="AQ160" s="12"/>
+      <c r="AR160" s="12"/>
+      <c r="AS160" s="12"/>
+    </row>
+    <row r="161" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG161" s="12"/>
+      <c r="AH161" s="12"/>
+      <c r="AI161" s="12"/>
+      <c r="AJ161" s="12"/>
+      <c r="AK161" s="12"/>
+      <c r="AL161" s="12"/>
+      <c r="AM161" s="12"/>
+      <c r="AN161" s="12"/>
+      <c r="AO161" s="12"/>
+      <c r="AP161" s="12"/>
+      <c r="AQ161" s="12"/>
+      <c r="AR161" s="12"/>
+      <c r="AS161" s="12"/>
+    </row>
+    <row r="162" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG162" s="12"/>
+      <c r="AH162" s="12"/>
+      <c r="AI162" s="12"/>
+      <c r="AJ162" s="12"/>
+      <c r="AK162" s="12"/>
+      <c r="AL162" s="12"/>
+      <c r="AM162" s="12"/>
+      <c r="AN162" s="12"/>
+      <c r="AO162" s="12"/>
+      <c r="AP162" s="12"/>
+      <c r="AQ162" s="12"/>
+      <c r="AR162" s="12"/>
+      <c r="AS162" s="12"/>
+    </row>
+    <row r="163" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG163" s="12"/>
+      <c r="AH163" s="12"/>
+      <c r="AI163" s="12"/>
+      <c r="AJ163" s="12"/>
+      <c r="AK163" s="12"/>
+      <c r="AL163" s="12"/>
+      <c r="AM163" s="12"/>
+      <c r="AN163" s="12"/>
+      <c r="AO163" s="12"/>
+      <c r="AP163" s="12"/>
+      <c r="AQ163" s="12"/>
+      <c r="AR163" s="12"/>
+      <c r="AS163" s="12"/>
+    </row>
+    <row r="164" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG164" s="12"/>
+      <c r="AH164" s="12"/>
+      <c r="AI164" s="12"/>
+      <c r="AJ164" s="12"/>
+      <c r="AK164" s="12"/>
+      <c r="AL164" s="12"/>
+      <c r="AM164" s="12"/>
+      <c r="AN164" s="12"/>
+      <c r="AO164" s="12"/>
+      <c r="AP164" s="12"/>
+      <c r="AQ164" s="12"/>
+      <c r="AR164" s="12"/>
+      <c r="AS164" s="12"/>
+    </row>
+    <row r="165" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG165" s="12"/>
+      <c r="AH165" s="12"/>
+      <c r="AI165" s="12"/>
+      <c r="AJ165" s="12"/>
+      <c r="AK165" s="12"/>
+      <c r="AL165" s="12"/>
+      <c r="AM165" s="12"/>
+      <c r="AN165" s="12"/>
+      <c r="AO165" s="12"/>
+      <c r="AP165" s="12"/>
+      <c r="AQ165" s="12"/>
+      <c r="AR165" s="12"/>
+      <c r="AS165" s="12"/>
+    </row>
+    <row r="166" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG166" s="12"/>
+      <c r="AH166" s="12"/>
+      <c r="AI166" s="12"/>
+      <c r="AJ166" s="12"/>
+      <c r="AK166" s="12"/>
+      <c r="AL166" s="12"/>
+      <c r="AM166" s="12"/>
+      <c r="AN166" s="12"/>
+      <c r="AO166" s="12"/>
+      <c r="AP166" s="12"/>
+      <c r="AQ166" s="12"/>
+      <c r="AR166" s="12"/>
+      <c r="AS166" s="12"/>
+    </row>
+    <row r="167" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG167" s="12"/>
+      <c r="AH167" s="12"/>
+      <c r="AI167" s="12"/>
+      <c r="AJ167" s="12"/>
+      <c r="AK167" s="12"/>
+      <c r="AL167" s="12"/>
+      <c r="AM167" s="12"/>
+      <c r="AN167" s="12"/>
+      <c r="AO167" s="12"/>
+      <c r="AP167" s="12"/>
+      <c r="AQ167" s="12"/>
+      <c r="AR167" s="12"/>
+      <c r="AS167" s="12"/>
+    </row>
+    <row r="168" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG168" s="12"/>
+      <c r="AH168" s="12"/>
+      <c r="AI168" s="12"/>
+      <c r="AJ168" s="12"/>
+      <c r="AK168" s="12"/>
+      <c r="AL168" s="12"/>
+      <c r="AM168" s="12"/>
+      <c r="AN168" s="12"/>
+      <c r="AO168" s="12"/>
+      <c r="AP168" s="12"/>
+      <c r="AQ168" s="12"/>
+      <c r="AR168" s="12"/>
+      <c r="AS168" s="12"/>
+    </row>
+    <row r="169" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG169" s="12"/>
+      <c r="AH169" s="12"/>
+      <c r="AI169" s="12"/>
+      <c r="AJ169" s="12"/>
+      <c r="AK169" s="12"/>
+      <c r="AL169" s="12"/>
+      <c r="AM169" s="12"/>
+      <c r="AN169" s="12"/>
+      <c r="AO169" s="12"/>
+      <c r="AP169" s="12"/>
+      <c r="AQ169" s="12"/>
+      <c r="AR169" s="12"/>
+      <c r="AS169" s="12"/>
+    </row>
+    <row r="170" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG170" s="12"/>
+      <c r="AH170" s="12"/>
+      <c r="AI170" s="12"/>
+      <c r="AJ170" s="12"/>
+      <c r="AK170" s="12"/>
+      <c r="AL170" s="12"/>
+      <c r="AM170" s="12"/>
+      <c r="AN170" s="12"/>
+      <c r="AO170" s="12"/>
+      <c r="AP170" s="12"/>
+      <c r="AQ170" s="12"/>
+      <c r="AR170" s="12"/>
+      <c r="AS170" s="12"/>
+    </row>
+    <row r="171" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG171" s="12"/>
+      <c r="AH171" s="12"/>
+      <c r="AI171" s="12"/>
+      <c r="AJ171" s="12"/>
+      <c r="AK171" s="12"/>
+      <c r="AL171" s="12"/>
+      <c r="AM171" s="12"/>
+      <c r="AN171" s="12"/>
+      <c r="AO171" s="12"/>
+      <c r="AP171" s="12"/>
+      <c r="AQ171" s="12"/>
+      <c r="AR171" s="12"/>
+      <c r="AS171" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -487,274 +7601,267 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
+      <c r="A2" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>163</v>
+      </c>
+      <c r="B21" t="s">
+        <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -764,37 +7871,396 @@
     <hyperlink ref="B9" r:id="rId3"/>
     <hyperlink ref="B11" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="C12" r:id="rId6"/>
-    <hyperlink ref="B12" r:id="rId7"/>
-    <hyperlink ref="B16" r:id="rId8"/>
-    <hyperlink ref="B20" r:id="rId9"/>
-    <hyperlink ref="B8" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId6"/>
+    <hyperlink ref="B13" r:id="rId7"/>
+    <hyperlink ref="B17" r:id="rId8"/>
+    <hyperlink ref="B8" r:id="rId9"/>
+    <hyperlink ref="B1" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="63.140625" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="E22" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="44"/>
+      <c r="C26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="44"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="44"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="44"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="44"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="44"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="44"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C3:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C20:C24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Commands.xlsx
+++ b/Commands.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="179">
   <si>
     <t>sudo apt-get update; sudo apt-get upgrade</t>
   </si>
@@ -32,9 +32,6 @@
     <t>http://raspberrypihq.com/how-to-share-a-folder-with-a-windows-computer-from-a-raspberry-pi/</t>
   </si>
   <si>
-    <t>Setup samba share</t>
-  </si>
-  <si>
     <t>http://ubuntuforums.org/showthread.php?t=1723762</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>setup hotspot</t>
   </si>
   <si>
-    <t>Set up RAM drive</t>
-  </si>
-  <si>
     <t>http://www.domoticz.com/wiki/Setting_up_a_RAM_drive_on_Raspberry_Pi</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>If a bash script gives the problem '$'\r': command not found</t>
   </si>
   <si>
-    <t>dos2unix /data/scripts/deletefiles</t>
-  </si>
-  <si>
     <t>*Need to install dos2unix</t>
   </si>
   <si>
@@ -515,9 +506,6 @@
     <t>turn_on_led.py</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>turn on led on startup</t>
   </si>
   <si>
@@ -525,6 +513,94 @@
   </si>
   <si>
     <t>see Folder Structure tab</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sudo raspiconfig </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and increase partition size  (first option)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Setup samba share for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> folder</t>
+    </r>
+  </si>
+  <si>
+    <t>Set up RAM drive, 100MB?</t>
+  </si>
+  <si>
+    <r>
+      <t>dos2unix /data/scripts/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deletefiles</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">connect Rpi to vehicle, via diagnostics port (or custom harness if they remember to add that) </t>
+  </si>
+  <si>
+    <t>put can-test folder into /data/scripts</t>
+  </si>
+  <si>
+    <t>192.168.113.2XX</t>
+  </si>
+  <si>
+    <t>192.168.115.1</t>
+  </si>
+  <si>
+    <t>\\192.168.115.1\ in File Explorer</t>
+  </si>
+  <si>
+    <t>var?</t>
+  </si>
+  <si>
+    <t>website stuff goes here</t>
+  </si>
+  <si>
+    <t>LED:</t>
+  </si>
+  <si>
+    <t>Make sure green LED turns on when RPI is powered</t>
+  </si>
+  <si>
+    <t>Yellow LED turns on when RPI has booted and logged in.</t>
   </si>
 </sst>
 </file>
@@ -534,7 +610,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +674,13 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1626,13 +1709,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>553348</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>77234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1714,13 +1797,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2124075</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1761,13 +1844,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2152650</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2097,7 +2180,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,34 +2201,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
@@ -2159,7 +2242,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I2" s="24">
         <f>SUM(I3:I998)</f>
@@ -2177,29 +2260,29 @@
         <v>1</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F3" s="20">
         <v>2358</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H3" s="28">
         <v>39.950000000000003</v>
       </c>
       <c r="I3" s="28">
-        <f t="shared" ref="I3:I21" si="0">H3*B3</f>
+        <f t="shared" ref="I3:I16" si="0">H3*B3</f>
         <v>39.950000000000003</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
@@ -2213,19 +2296,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F4" s="20">
         <v>264</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H4" s="28">
         <v>9</v>
@@ -2235,33 +2318,33 @@
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
-        <f t="shared" ref="A5:A21" si="1">A4+1</f>
+        <f t="shared" ref="A5:A16" si="1">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="26">
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F5" s="29">
         <v>814</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H5" s="30">
         <v>11.95</v>
@@ -2271,7 +2354,7 @@
         <v>11.95</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -2285,19 +2368,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="G6" s="29" t="s">
         <v>97</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>100</v>
       </c>
       <c r="H6" s="30">
         <v>50</v>
@@ -2307,7 +2390,7 @@
         <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -2321,19 +2404,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F7" s="20">
         <v>2083</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H7" s="31">
         <v>11.95</v>
@@ -2343,7 +2426,7 @@
         <v>11.95</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
@@ -2357,19 +2440,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="G8" s="35" t="s">
         <v>107</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>110</v>
       </c>
       <c r="H8" s="30">
         <v>23</v>
@@ -2379,13 +2462,13 @@
         <v>23</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2397,19 +2480,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="G9" s="33" t="s">
         <v>115</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>118</v>
       </c>
       <c r="H9" s="30">
         <v>20.6</v>
@@ -2419,7 +2502,7 @@
         <v>20.6</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -2433,13 +2516,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F10" s="33">
         <v>2310</v>
@@ -2453,7 +2536,7 @@
         <v>4.95</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -2467,13 +2550,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F11" s="33">
         <v>2223</v>
@@ -2487,7 +2570,7 @@
         <v>2.5</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -2501,19 +2584,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="G12" s="29" t="s">
         <v>127</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>130</v>
       </c>
       <c r="H12" s="30">
         <v>4.22</v>
@@ -2523,7 +2606,7 @@
         <v>4.22</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
@@ -2537,19 +2620,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H13" s="30">
         <v>3.45</v>
@@ -2559,7 +2642,7 @@
         <v>3.45</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -2573,19 +2656,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="G14" s="29" t="s">
         <v>137</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>140</v>
       </c>
       <c r="H14" s="30">
         <v>0.28000000000000003</v>
@@ -2595,7 +2678,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -2609,19 +2692,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>142</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>145</v>
       </c>
       <c r="H15" s="30">
         <v>0.1</v>
@@ -2631,7 +2714,7 @@
         <v>0.2</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -2646,16 +2729,16 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>147</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>150</v>
       </c>
       <c r="H16" s="31"/>
       <c r="I16" s="28">
@@ -2868,7 +2951,7 @@
   <dimension ref="A1:AS171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,14 +3027,14 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
@@ -3102,7 +3185,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
@@ -3603,7 +3686,7 @@
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -3723,7 +3806,7 @@
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
@@ -4003,7 +4086,7 @@
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
@@ -4222,7 +4305,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -4503,7 +4586,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -7593,10 +7676,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7610,21 +7693,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7632,249 +7715,254 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
         <v>168</v>
       </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
-    <hyperlink ref="B11" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B12" r:id="rId6"/>
-    <hyperlink ref="B13" r:id="rId7"/>
-    <hyperlink ref="B17" r:id="rId8"/>
-    <hyperlink ref="B8" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B12" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B13" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B18" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
     <hyperlink ref="B1" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7885,10 +7973,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7900,181 +7988,214 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>63</v>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B35" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8083,7 +8204,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8095,25 +8216,25 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="44"/>
       <c r="C3" s="44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8164,14 +8285,14 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="44"/>
       <c r="C14" s="44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
       <c r="D15" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8189,27 +8310,27 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="44"/>
       <c r="C20" s="44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
       <c r="E22" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -8222,17 +8343,20 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="44" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="44"/>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="44"/>
+      <c r="D27" s="6" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="44"/>

--- a/Commands.xlsx
+++ b/Commands.xlsx
@@ -576,9 +576,6 @@
     <t xml:space="preserve">connect Rpi to vehicle, via diagnostics port (or custom harness if they remember to add that) </t>
   </si>
   <si>
-    <t>put can-test folder into /data/scripts</t>
-  </si>
-  <si>
     <t>192.168.113.2XX</t>
   </si>
   <si>
@@ -601,6 +598,9 @@
   </si>
   <si>
     <t>Yellow LED turns on when RPI has booted and logged in.</t>
+  </si>
+  <si>
+    <t>put can-test folder into /data/scripts; bring up can on boot</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -775,7 +775,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -807,7 +807,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -819,10 +819,10 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -834,16 +834,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -862,10 +862,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -7679,7 +7679,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7742,7 +7742,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -8120,7 +8120,7 @@
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8136,7 +8136,7 @@
         <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8152,7 +8152,7 @@
         <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8177,17 +8177,17 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -8343,7 +8343,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -8355,7 +8355,7 @@
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="44"/>
       <c r="D27" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
